--- a/output/StructureDefinition-splasch-Swallowing.xlsx
+++ b/output/StructureDefinition-splasch-Swallowing.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-30T03:26:11-05:00</t>
+    <t>2021-12-06T15:18:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -648,7 +648,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/pacio-splasch/CodeSystem/SPLASCHObservationCategory"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/pacio-splasch/CodeSystem/pacio-splasch-cs"/&gt;
     &lt;code value="swallowing"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
